--- a/forecast_summary_B083R826VW.xlsx
+++ b/forecast_summary_B083R826VW.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>34.07668676765771</v>
       </c>
       <c r="D2" t="n">
-        <v>63.85648654874791</v>
+        <v>65.4828804093527</v>
       </c>
       <c r="E2" t="n">
         <v>91</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>20.7598938851789</v>
       </c>
       <c r="D3" t="n">
-        <v>48.28187491850722</v>
+        <v>49.44190581080376</v>
       </c>
       <c r="E3" t="n">
         <v>81</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>20.52729345407438</v>
       </c>
       <c r="D4" t="n">
-        <v>49.73240000250824</v>
+        <v>48.11933771025277</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>26.44916196868628</v>
       </c>
       <c r="D5" t="n">
-        <v>55.78599666417892</v>
+        <v>54.95112262703564</v>
       </c>
       <c r="E5" t="n">
         <v>74</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>30.83565114524908</v>
       </c>
       <c r="D6" t="n">
-        <v>58.30635636552863</v>
+        <v>58.08200424660928</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>32.60414561386963</v>
       </c>
       <c r="D7" t="n">
-        <v>61.60273310224481</v>
+        <v>60.59547369773249</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>34.47792722794073</v>
       </c>
       <c r="D8" t="n">
-        <v>63.42734915341813</v>
+        <v>63.54412631299849</v>
       </c>
       <c r="E8" t="n">
         <v>51</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>36.68030900757827</v>
       </c>
       <c r="D9" t="n">
-        <v>68.37177683598512</v>
+        <v>67.87216259736596</v>
       </c>
       <c r="E9" t="n">
         <v>51</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>36.53301618549557</v>
       </c>
       <c r="D10" t="n">
-        <v>66.94688413326718</v>
+        <v>63.89705913804522</v>
       </c>
       <c r="E10" t="n">
         <v>49</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>33.49384016020004</v>
       </c>
       <c r="D11" t="n">
-        <v>62.60259450440198</v>
+        <v>62.90305350905402</v>
       </c>
       <c r="E11" t="n">
         <v>51</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>31.28517142820964</v>
       </c>
       <c r="D12" t="n">
-        <v>62.01961595009013</v>
+        <v>61.92223310080586</v>
       </c>
       <c r="E12" t="n">
         <v>51</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>33.30745174123958</v>
       </c>
       <c r="D13" t="n">
-        <v>61.57638627191753</v>
+        <v>62.72133231326939</v>
       </c>
       <c r="E13" t="n">
         <v>52</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>37.48338593774429</v>
       </c>
       <c r="D14" t="n">
-        <v>68.82483739761987</v>
+        <v>67.81561013318064</v>
       </c>
       <c r="E14" t="n">
         <v>51</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>38.03594752158222</v>
       </c>
       <c r="D15" t="n">
-        <v>68.94854471281862</v>
+        <v>68.42421297711554</v>
       </c>
       <c r="E15" t="n">
         <v>51</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>32.53805867117672</v>
       </c>
       <c r="D16" t="n">
-        <v>62.7850230280395</v>
+        <v>63.24218537508359</v>
       </c>
       <c r="E16" t="n">
         <v>52</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>25.27159236072841</v>
       </c>
       <c r="D17" t="n">
-        <v>54.57820763770564</v>
+        <v>55.48792795585835</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>22.38146905799384</v>
       </c>
       <c r="D18" t="n">
-        <v>53.47846347546118</v>
+        <v>51.64326305834734</v>
       </c>
       <c r="E18" t="n">
         <v>46</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>24.777121860664</v>
       </c>
       <c r="D19" t="n">
-        <v>54.01444275693665</v>
+        <v>55.59341160800153</v>
       </c>
       <c r="E19" t="n">
         <v>46</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>27.58248205400619</v>
       </c>
       <c r="D20" t="n">
-        <v>56.2024179324763</v>
+        <v>57.35827111499601</v>
       </c>
       <c r="E20" t="n">
         <v>51</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
         <v>26.54382542351551</v>
       </c>
       <c r="D21" t="n">
-        <v>57.26533963967647</v>
+        <v>55.87623066270794</v>
       </c>
       <c r="E21" t="n">
         <v>47</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>693</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>149</t>
         </is>
       </c>
     </row>
